--- a/docs/56记账项目书.xlsx
+++ b/docs/56记账项目书.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c22d00660d39029/点子/56记账/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c22d00660d39029/点子/56记账/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{21D2A77D-99F0-495E-9CF8-390FC31D22B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5048F4F-122D-465D-BC1F-9ADD165D6C6C}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{21D2A77D-99F0-495E-9CF8-390FC31D22B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A648A30E-33AD-4A17-BD4D-63C5AAE1DDF5}"/>
   <bookViews>
-    <workbookView xWindow="8172" yWindow="4656" windowWidth="34560" windowHeight="18600" xr2:uid="{1D1560BE-7CBF-4077-BA4D-B00E648BE54A}"/>
+    <workbookView xWindow="18888" yWindow="4416" windowWidth="34560" windowHeight="18600" activeTab="2" xr2:uid="{1D1560BE-7CBF-4077-BA4D-B00E648BE54A}"/>
   </bookViews>
   <sheets>
     <sheet name="总体目录" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,276 @@
   </si>
   <si>
     <t>项目甘特图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
+  </si>
+  <si>
+    <t>现有解决方案不足</t>
+  </si>
+  <si>
+    <t>手动记账麻烦，Excel无法可视化</t>
+  </si>
+  <si>
+    <t>管理全家开支，需多人协作</t>
+  </si>
+  <si>
+    <t>共享账本需付费，同步延迟严重</t>
+  </si>
+  <si>
+    <t>区分公私账，开发票抵税</t>
+  </si>
+  <si>
+    <t>职场新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由职业者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不支持发票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OCR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>归</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭主妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月月光，想分析钱花在哪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高频场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撑不到下个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全不知道自己的钱怎么没的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结论：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需解决快速记账，多端实时同步，发票扫描，自动整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户痛点分析：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心功能</t>
+  </si>
+  <si>
+    <t>记账操作</t>
+  </si>
+  <si>
+    <t>快速输入</t>
+  </si>
+  <si>
+    <t>分类管理</t>
+  </si>
+  <si>
+    <t>数据同步</t>
+  </si>
+  <si>
+    <t>多平台同步</t>
+  </si>
+  <si>
+    <t>家庭账户间数据同步</t>
+  </si>
+  <si>
+    <t>报表统计</t>
+  </si>
+  <si>
+    <t>收入/支出饼图</t>
+  </si>
+  <si>
+    <t>差异化功能</t>
+  </si>
+  <si>
+    <t>AI消费建议</t>
+  </si>
+  <si>
+    <t>消费预测</t>
+  </si>
+  <si>
+    <t>进阶功能</t>
+  </si>
+  <si>
+    <t>智能记账</t>
+  </si>
+  <si>
+    <t>语音输入</t>
+  </si>
+  <si>
+    <t>短信解析</t>
+  </si>
+  <si>
+    <t>ocr识别</t>
+  </si>
+  <si>
+    <t>跨平台框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flutter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言简单，上手快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能略低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同平台都是一致的UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能支持本地及离线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有sql经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要学习成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firebase桥接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免后端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小用量，长期成本高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表库选型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fl_chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术栈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,16 +440,84 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5E5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -202,6 +540,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -211,7 +564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,6 +576,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -240,6 +620,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46719A82-D009-4DDB-A91E-F472229CDA92}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -686,14 +1070,182 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBFEB5B-4FE3-472E-97E7-89498A205371}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A23"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -701,14 +1253,107 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099E8912-5765-42CB-9D5F-C233601772E5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
